--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H2">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I2">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J2">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N2">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q2">
-        <v>33.63024792999957</v>
+        <v>115.2245686561533</v>
       </c>
       <c r="R2">
-        <v>33.63024792999957</v>
+        <v>1037.02111790538</v>
       </c>
       <c r="S2">
-        <v>0.1003131257292571</v>
+        <v>0.2185168637684189</v>
       </c>
       <c r="T2">
-        <v>0.1003131257292571</v>
+        <v>0.2185168637684189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H3">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I3">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J3">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N3">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q3">
-        <v>8.50081741425249</v>
+        <v>21.377893472164</v>
       </c>
       <c r="R3">
-        <v>8.50081741425249</v>
+        <v>192.401041249476</v>
       </c>
       <c r="S3">
-        <v>0.0253564460140862</v>
+        <v>0.04054196331559158</v>
       </c>
       <c r="T3">
-        <v>0.0253564460140862</v>
+        <v>0.04054196331559158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H4">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I4">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J4">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N4">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q4">
-        <v>14.39687644332171</v>
+        <v>35.73743477863</v>
       </c>
       <c r="R4">
-        <v>14.39687644332171</v>
+        <v>321.63691300767</v>
       </c>
       <c r="S4">
-        <v>0.04294335503483541</v>
+        <v>0.06777401953448416</v>
       </c>
       <c r="T4">
-        <v>0.04294335503483541</v>
+        <v>0.06777401953448416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H5">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I5">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J5">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N5">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P5">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q5">
-        <v>5.542207660287217</v>
+        <v>13.87056029935133</v>
       </c>
       <c r="R5">
-        <v>5.542207660287217</v>
+        <v>124.835042694162</v>
       </c>
       <c r="S5">
-        <v>0.01653143250686854</v>
+        <v>0.02630473145332215</v>
       </c>
       <c r="T5">
-        <v>0.01653143250686854</v>
+        <v>0.02630473145332215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H6">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J6">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N6">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P6">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q6">
-        <v>107.9213017053772</v>
+        <v>154.2147329318622</v>
       </c>
       <c r="R6">
-        <v>107.9213017053772</v>
+        <v>1387.93259638676</v>
       </c>
       <c r="S6">
-        <v>0.3219102972232157</v>
+        <v>0.2924595004361966</v>
       </c>
       <c r="T6">
-        <v>0.3219102972232157</v>
+        <v>0.2924595004361966</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H7">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I7">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J7">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N7">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P7">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q7">
-        <v>27.27958719827015</v>
+        <v>28.61183314379467</v>
       </c>
       <c r="R7">
-        <v>27.27958719827015</v>
+        <v>257.506498294152</v>
       </c>
       <c r="S7">
-        <v>0.08137021963555714</v>
+        <v>0.05426071989824218</v>
       </c>
       <c r="T7">
-        <v>0.08137021963555714</v>
+        <v>0.05426071989824218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H8">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I8">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J8">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N8">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P8">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q8">
-        <v>46.20036252747245</v>
+        <v>47.83041519992666</v>
       </c>
       <c r="R8">
-        <v>46.20036252747245</v>
+        <v>430.47373679934</v>
       </c>
       <c r="S8">
-        <v>0.1378075708690044</v>
+        <v>0.09070767149859174</v>
       </c>
       <c r="T8">
-        <v>0.1378075708690044</v>
+        <v>0.09070767149859174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.21924831173834</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H9">
-        <v>4.21924831173834</v>
+        <v>13.101932</v>
       </c>
       <c r="I9">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J9">
-        <v>0.5941383572027266</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N9">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P9">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q9">
-        <v>17.78524696769064</v>
+        <v>18.56413764119155</v>
       </c>
       <c r="R9">
-        <v>17.78524696769064</v>
+        <v>167.077238770724</v>
       </c>
       <c r="S9">
-        <v>0.05305026947494951</v>
+        <v>0.03520583485995805</v>
       </c>
       <c r="T9">
-        <v>0.05305026947494951</v>
+        <v>0.03520583485995805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H10">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I10">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J10">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N10">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P10">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q10">
-        <v>40.09183426174009</v>
+        <v>56.84873970539888</v>
       </c>
       <c r="R10">
-        <v>40.09183426174009</v>
+        <v>511.63865734859</v>
       </c>
       <c r="S10">
-        <v>0.1195869034146167</v>
+        <v>0.1078104127834161</v>
       </c>
       <c r="T10">
-        <v>0.1195869034146167</v>
+        <v>0.1078104127834161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H11">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I11">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J11">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N11">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P11">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q11">
-        <v>10.13413173673053</v>
+        <v>10.54728445176867</v>
       </c>
       <c r="R11">
-        <v>10.13413173673053</v>
+        <v>94.92556006591799</v>
       </c>
       <c r="S11">
-        <v>0.03022833590699362</v>
+        <v>0.02000232716471806</v>
       </c>
       <c r="T11">
-        <v>0.03022833590699362</v>
+        <v>0.02000232716471806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H12">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I12">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J12">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N12">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P12">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q12">
-        <v>17.1630368427204</v>
+        <v>17.63190048063166</v>
       </c>
       <c r="R12">
-        <v>17.1630368427204</v>
+        <v>158.687104325685</v>
       </c>
       <c r="S12">
-        <v>0.05119432590218509</v>
+        <v>0.03343789992221208</v>
       </c>
       <c r="T12">
-        <v>0.05119432590218509</v>
+        <v>0.03343789992221208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.56741441541482</v>
+        <v>1.609937666666666</v>
       </c>
       <c r="H13">
-        <v>1.56741441541482</v>
+        <v>4.829813</v>
       </c>
       <c r="I13">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="J13">
-        <v>0.2207172835122262</v>
+        <v>0.1742286952351946</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.21526434417487</v>
+        <v>4.250702333333333</v>
       </c>
       <c r="N13">
-        <v>4.21526434417487</v>
+        <v>12.752107</v>
       </c>
       <c r="O13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="P13">
-        <v>0.0892894202702489</v>
+        <v>0.07448862167812857</v>
       </c>
       <c r="Q13">
-        <v>6.607066097843789</v>
+        <v>6.843365796221221</v>
       </c>
       <c r="R13">
-        <v>6.607066097843789</v>
+        <v>61.59029216599099</v>
       </c>
       <c r="S13">
-        <v>0.01970771828843084</v>
+        <v>0.01297805536484837</v>
       </c>
       <c r="T13">
-        <v>0.01970771828843084</v>
+        <v>0.01297805536484837</v>
       </c>
     </row>
   </sheetData>
